--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180116.5665643289</v>
+        <v>178956.0138262251</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21676464.76147075</v>
+        <v>22099924.35763671</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7008320.678516638</v>
+        <v>7423353.428718867</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5787156.670680891</v>
+        <v>5578484.111789946</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>188.120198496572</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>92.80730034226363</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022517</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>149.7411312962239</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -899,13 +901,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>62.10271551817324</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>83.18350266509944</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1054,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>168.389434911778</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>163.7825296617776</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.1558021083721</v>
+        <v>59.40801272130633</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>79.58540461744407</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1345,13 +1347,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>157.8824880649888</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>93.2026581781991</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,13 +1429,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>399.2110720528686</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1528,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>56.95997704284424</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>299.2268834878737</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>54.55340531488843</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>50.38971918733571</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1844,13 +1846,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>270.447898547608</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>83.18350266509944</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,25 +2083,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>108.3674421098566</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>173.6307784375456</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2245,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>64.90507698037636</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2330,13 +2332,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>45.91568880648689</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>314.8435364600425</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>403.4239299234998</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2719,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6348798138342</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2792,22 +2794,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>368.0234318832712</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>49.31205122675285</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>39.57637241135509</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>268.3727301458102</v>
       </c>
       <c r="G32" t="n">
-        <v>228.4953366311833</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>127.1100078938257</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>357.5270992262344</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>70.87562473588811</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3566,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>155.9995894427402</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>294.4813050116874</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>34.75529100421647</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>122.4914619056499</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>8.757092972257073</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>268.3727301458104</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>16.41153525754332</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.090633274849</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C2" t="n">
-        <v>342.9481604582723</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D2" t="n">
-        <v>342.9481604582723</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E2" t="n">
-        <v>342.9481604582723</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
         <v>342.9481604582723</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2013.374674984852</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.519220395885</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1189.376756975196</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.090633274849</v>
+        <v>2670.060826431428</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>962.7013733912472</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>790.1396618744722</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4492,13 +4494,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2518.807158455444</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2272.927712033899</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1994.494711287005</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1707.539203157435</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1435.512798743727</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1190.121044077139</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>962.7013733912472</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.4534741707607</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C5" t="n">
-        <v>489.311001354184</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D5" t="n">
-        <v>53.40121652862856</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>53.40121652862856</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4571,22 +4573,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4601,16 +4603,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2586.037086365671</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2181.181631776704</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.039168356015</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y5" t="n">
-        <v>1353.753044655668</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4647,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1128.138272039507</v>
+        <v>1041.328054693136</v>
       </c>
       <c r="C7" t="n">
-        <v>955.5765605227324</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>789.6985677242551</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.33055796836</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425082</v>
+        <v>1705.958098764602</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1460.566344098014</v>
       </c>
       <c r="Y7" t="n">
-        <v>1319.956890758495</v>
+        <v>1233.146673412123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>883.0832668690169</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>883.0832668690169</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>883.0832668690169</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
         <v>883.0832668690169</v>
@@ -4793,37 +4795,37 @@
         <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>399.1575173855749</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>222.4504633473311</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>222.4504633473311</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4993,19 +4995,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1361.228219012466</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="C11" t="n">
-        <v>923.0857461958889</v>
+        <v>1306.359999922571</v>
       </c>
       <c r="D11" t="n">
-        <v>487.1759613703334</v>
+        <v>870.4502150970152</v>
       </c>
       <c r="E11" t="n">
-        <v>53.40121652862856</v>
+        <v>436.6754702553104</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862856</v>
+        <v>436.6754702553104</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U11" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V11" t="n">
-        <v>2190.771296621483</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W11" t="n">
-        <v>2190.771296621483</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X11" t="n">
-        <v>1787.527789497373</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="Y11" t="n">
-        <v>1787.527789497373</v>
+        <v>1744.502472739147</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5121,19 +5123,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.8950539462403</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C13" t="n">
-        <v>705.359723599933</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D13" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E13" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F13" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G13" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5224,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2510.819457729424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.551502431415</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.133343351119</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.7136726652275</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1361.228219012466</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="C14" t="n">
-        <v>923.0857461958889</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="D14" t="n">
-        <v>487.1759613703334</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862856</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L14" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M14" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5306,22 +5308,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.956376618409</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W14" t="n">
-        <v>2614.956376618409</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X14" t="n">
-        <v>2195.81391319772</v>
+        <v>1625.995681294811</v>
       </c>
       <c r="Y14" t="n">
-        <v>1787.527789497373</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5358,25 +5360,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1043.799427915185</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="C16" t="n">
         <v>871.2377163984103</v>
@@ -5428,19 +5430,19 @@
         <v>193.303390838254</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
@@ -5461,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2619.162120181594</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2373.282673760049</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.41138452993</v>
+        <v>2094.849673013155</v>
       </c>
       <c r="V16" t="n">
-        <v>1980.45587640036</v>
+        <v>1807.894164883585</v>
       </c>
       <c r="W16" t="n">
-        <v>1708.429471986652</v>
+        <v>1535.867760469877</v>
       </c>
       <c r="X16" t="n">
-        <v>1463.037717320064</v>
+        <v>1290.476005803289</v>
       </c>
       <c r="Y16" t="n">
-        <v>1235.618046634173</v>
+        <v>1063.056335117397</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>927.4534741707607</v>
+        <v>1196.265441698523</v>
       </c>
       <c r="C17" t="n">
-        <v>489.311001354184</v>
+        <v>923.085746195889</v>
       </c>
       <c r="D17" t="n">
-        <v>53.40121652862856</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M17" t="n">
         <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5543,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V17" t="n">
-        <v>2586.037086365671</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W17" t="n">
-        <v>2181.181631776704</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="X17" t="n">
-        <v>1762.039168356015</v>
+        <v>2030.851135883778</v>
       </c>
       <c r="Y17" t="n">
-        <v>1353.753044655668</v>
+        <v>1622.565012183431</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5588,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5698,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1808.969985903138</v>
+        <v>853.3912651993772</v>
       </c>
       <c r="C20" t="n">
-        <v>1370.827513086561</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D20" t="n">
-        <v>934.9177282610058</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E20" t="n">
-        <v>501.142983419301</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F20" t="n">
-        <v>73.27555382850876</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G20" t="n">
-        <v>73.27555382850876</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>73.27555382850876</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>177.0236357135572</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K20" t="n">
-        <v>1011.373927671735</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L20" t="n">
-        <v>1913.001137810388</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M20" t="n">
-        <v>1913.001137810388</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N20" t="n">
-        <v>1913.001137810388</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O20" t="n">
-        <v>2814.628347949042</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P20" t="n">
-        <v>3642.938222782438</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>3642.938222782438</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>3642.938222782438</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U20" t="n">
-        <v>3642.938222782438</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V20" t="n">
-        <v>3467.553598098048</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W20" t="n">
-        <v>3062.698143509082</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X20" t="n">
-        <v>2643.555680088392</v>
+        <v>1687.976959384632</v>
       </c>
       <c r="Y20" t="n">
-        <v>2235.269556388046</v>
+        <v>1279.690835684285</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>579.0305094469416</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>472.5740482835839</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>377.4837594301371</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>283.3633447570908</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>199.9795063732524</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>114.5944166394363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>98.92243761610636</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>423.4807625823187</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1618.925747840118</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>1736.098525934458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1672.643088382841</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1542.464444713442</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1366.127897713411</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1167.01037977541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>981.687625508604</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>826.8201897474839</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>700.3344105267047</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.35480153258</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C22" t="n">
-        <v>750.793090015805</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D22" t="n">
-        <v>584.9150972173277</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E22" t="n">
-        <v>415.1570934680649</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F22" t="n">
-        <v>238.4500394298211</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G22" t="n">
-        <v>72.85876445564877</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>159.4384496203386</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>434.1969041914742</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>852.4067859594353</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1311.890653140348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1754.149456297993</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.818705523774</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2521.325599494116</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2671.279205315764</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T22" t="n">
-        <v>2425.399758894219</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.966758147325</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V22" t="n">
-        <v>1860.011250017755</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.984845604047</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.593090937459</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y22" t="n">
-        <v>1115.173420251567</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C26" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D26" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F26" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G26" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>488.6559039815464</v>
+        <v>518.386598053036</v>
       </c>
       <c r="L26" t="n">
-        <v>488.6559039815464</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M26" t="n">
-        <v>488.6559039815464</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362198</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V26" t="n">
-        <v>1964.569699866108</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="W26" t="n">
-        <v>1559.714245277141</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="X26" t="n">
-        <v>1152.215326162495</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y26" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.8950539462408</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C28" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E28" t="n">
-        <v>424.4553496309884</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F28" t="n">
-        <v>424.4553496309884</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G28" t="n">
-        <v>258.8640746568161</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H28" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431416</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.13334335112</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.7136726652279</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1789.095648603258</v>
+        <v>714.2722113715448</v>
       </c>
       <c r="C29" t="n">
-        <v>1350.953175786681</v>
+        <v>714.2722113715448</v>
       </c>
       <c r="D29" t="n">
-        <v>915.0433909611256</v>
+        <v>714.2722113715448</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194208</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6473,40 +6475,40 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2620.250673677132</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2620.250673677132</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U29" t="n">
-        <v>2620.250673677132</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V29" t="n">
-        <v>2620.250673677132</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W29" t="n">
-        <v>2215.395219088166</v>
+        <v>1559.714245277142</v>
       </c>
       <c r="X29" t="n">
-        <v>2215.395219088166</v>
+        <v>1140.571781856453</v>
       </c>
       <c r="Y29" t="n">
-        <v>2215.395219088166</v>
+        <v>1140.571781856453</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D31" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F31" t="n">
-        <v>193.303390838254</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W31" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1011.477214236518</v>
+        <v>1015.012768265997</v>
       </c>
       <c r="C32" t="n">
-        <v>573.3347414199409</v>
+        <v>1015.012768265997</v>
       </c>
       <c r="D32" t="n">
-        <v>573.3347414199409</v>
+        <v>1015.012768265997</v>
       </c>
       <c r="E32" t="n">
-        <v>573.3347414199409</v>
+        <v>1015.012768265997</v>
       </c>
       <c r="F32" t="n">
-        <v>573.3347414199409</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M32" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N32" t="n">
-        <v>2009.22077188965</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O32" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6728,22 +6730,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W32" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X32" t="n">
-        <v>1846.062908421772</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="Y32" t="n">
-        <v>1437.776784721425</v>
+        <v>1015.012768265997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6883,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2634.504334502149</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.9375319722682</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C35" t="n">
-        <v>815.9375319722682</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="D35" t="n">
-        <v>815.9375319722682</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E35" t="n">
-        <v>815.9375319722682</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L35" t="n">
-        <v>801.8819313892766</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8819313892766</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N35" t="n">
-        <v>801.8819313892766</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6968,19 +6970,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U35" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W35" t="n">
-        <v>1643.366119093304</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X35" t="n">
-        <v>1224.223655672615</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y35" t="n">
-        <v>815.9375319722682</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C36" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D36" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E36" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F36" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G36" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I36" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J36" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K36" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M36" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N36" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O36" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P36" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q36" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R36" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S36" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T36" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U36" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V36" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W36" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X36" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y36" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.8950539462408</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>590.3333424294657</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>424.4553496309884</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>254.6973458817257</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>77.99029184348186</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7120,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1182.13334335112</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>954.7136726652279</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1182.071675278725</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M38" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N38" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O38" t="n">
-        <v>1840.066707136593</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P38" t="n">
-        <v>2500.906761678371</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V38" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W38" t="n">
-        <v>1339.64701815018</v>
+        <v>1643.366119093305</v>
       </c>
       <c r="X38" t="n">
-        <v>1339.64701815018</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="Y38" t="n">
-        <v>1182.071675278725</v>
+        <v>815.9375319722691</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C39" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D39" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E39" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F39" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G39" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R39" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S39" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T39" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U39" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V39" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W39" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X39" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y39" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7336,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>752.2549115535338</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C41" t="n">
-        <v>752.2549115535338</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D41" t="n">
-        <v>752.2549115535338</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E41" t="n">
-        <v>752.2549115535338</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
@@ -7415,22 +7417,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M41" t="n">
-        <v>1810.336013065103</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N41" t="n">
-        <v>2471.176067606882</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O41" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7442,19 +7444,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U41" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W41" t="n">
-        <v>2005.983069159478</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X41" t="n">
-        <v>1586.840605738788</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y41" t="n">
-        <v>1178.554482038442</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1043.799427915185</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C43" t="n">
-        <v>871.2377163984103</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D43" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E43" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F43" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G43" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862891</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862891</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K43" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7609,10 +7611,10 @@
         <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
-        <v>1463.037717320064</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>1235.618046634173</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>864.3399636139361</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C44" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D44" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E44" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F44" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N44" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O44" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U44" t="n">
-        <v>1688.337881623592</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V44" t="n">
-        <v>1688.337881623592</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W44" t="n">
-        <v>1283.482427034625</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X44" t="n">
-        <v>864.3399636139361</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y44" t="n">
-        <v>864.3399636139361</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>227.228030980805</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>227.228030980805</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>227.228030980805</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>227.228030980805</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>50.52097694256119</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>453.9965675465116</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.062614956869</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>1013.629614209975</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>726.6741060804052</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>454.6477016666967</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>454.6477016666967</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>227.228030980805</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8152,7 +8154,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8219,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8620,7 +8622,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8866,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>112.1603739174597</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.217041674655</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956095</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>30.03100411261573</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10121,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10823,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>469.6822035600078</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>310.9272166398487</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>233.9163762834866</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>266.1834802232481</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,19 +22713,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7.907823718759431</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.4479714591267</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,10 +22843,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>275.8072779004123</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22942,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.446659489829329</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.277894049992483</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.8807726716866</v>
+        <v>362.6285620587524</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23182,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23191,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>58.91774794908515</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23233,13 +23235,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>304.1811948847696</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>15.73996673361376</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>113.8761173587631</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>122.809691292185</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>304.4373752506233</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>163.313149540803</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23783,16 +23785,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>275.8072779004123</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>325.3936059785544</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>185.3600021279661</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>171.9508660492049</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24443,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>44.14724410546927</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>11.52710886298263</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22.86827275269502</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>61.41356551001655</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>33.50330385124851</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24926,10 +24928,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>155.2160251490741</v>
       </c>
       <c r="G32" t="n">
-        <v>168.8885164317854</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>306.6510401945852</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25163,7 +25165,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>66.06165606864988</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,10 +25210,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>351.1609500441706</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.2036730206029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>129.1074502831969</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>369.4479714591266</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8729866838962</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>146.578308640672</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>147.5238269668873</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482437.4994388257</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482437.4994388258</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482437.4994388258</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>589616.8619824536</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751574.3581245558</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482437.4994388258</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482437.4994388258</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482437.4994388258</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342942.751203652</v>
+        <v>482437.4994388259</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="C2" t="n">
         <v>135276.4913831621</v>
       </c>
       <c r="D2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="E2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="F2" t="n">
         <v>135276.4913831621</v>
@@ -26329,13 +26331,13 @@
         <v>135276.4913831621</v>
       </c>
       <c r="H2" t="n">
-        <v>165329.8104772437</v>
+        <v>135276.491383162</v>
       </c>
       <c r="I2" t="n">
-        <v>210743.0336549409</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="J2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="K2" t="n">
         <v>135276.4913831621</v>
@@ -26344,16 +26346,16 @@
         <v>135276.4913831621</v>
       </c>
       <c r="M2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="N2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="O2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="P2" t="n">
-        <v>96161.8700496588</v>
+        <v>135276.4913831621</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97732.86753544268</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14853.50628781394</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26427,16 +26429,16 @@
         <v>26396.92784106698</v>
       </c>
       <c r="F4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="G4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="H4" t="n">
-        <v>32261.32665419127</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="I4" t="n">
-        <v>41122.95192991271</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="J4" t="n">
         <v>26396.92784106698</v>
@@ -26451,13 +26453,13 @@
         <v>26396.92784106698</v>
       </c>
       <c r="N4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="O4" t="n">
         <v>26396.92784106698</v>
       </c>
       <c r="P4" t="n">
-        <v>18764.36858177456</v>
+        <v>26396.92784106698</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>55372.66098629306</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189032.6596037075</v>
+        <v>-189032.6596037074</v>
       </c>
       <c r="C6" t="n">
-        <v>34667.03898033741</v>
+        <v>34667.0389803374</v>
       </c>
       <c r="D6" t="n">
-        <v>34667.03898033735</v>
+        <v>34667.0389803374</v>
       </c>
       <c r="E6" t="n">
+        <v>68294.6389803374</v>
+      </c>
+      <c r="F6" t="n">
         <v>68294.63898033736</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>68294.63898033739</v>
       </c>
-      <c r="G6" t="n">
-        <v>68294.63898033742</v>
-      </c>
       <c r="H6" t="n">
-        <v>12073.05347874192</v>
+        <v>68294.63898033733</v>
       </c>
       <c r="I6" t="n">
-        <v>-5831.024416206987</v>
+        <v>68294.63898033739</v>
       </c>
       <c r="J6" t="n">
-        <v>53441.13269252338</v>
+        <v>-106356.7097373687</v>
       </c>
       <c r="K6" t="n">
-        <v>68294.63898033742</v>
+        <v>68294.63898033737</v>
       </c>
       <c r="L6" t="n">
-        <v>68294.63898033739</v>
+        <v>68294.63898033737</v>
       </c>
       <c r="M6" t="n">
-        <v>68294.63898033736</v>
+        <v>68294.63898033737</v>
       </c>
       <c r="N6" t="n">
         <v>68294.63898033736</v>
       </c>
       <c r="O6" t="n">
-        <v>68294.63898033736</v>
+        <v>68294.6389803374</v>
       </c>
       <c r="P6" t="n">
-        <v>51600.31333066188</v>
+        <v>68294.63898033737</v>
       </c>
     </row>
   </sheetData>
@@ -26790,46 +26792,46 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>910.7345556956095</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>367.5259476891358</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.76990983096857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34872,7 +34874,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34939,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35340,10 +35342,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35586,7 +35588,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>112.1603739174597</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,22 +35886,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.217041674655</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956095</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>30.03100411261573</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36841,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>469.6822035600078</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158827</v>
@@ -37704,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37783,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37856,7 +37858,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158827</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>310.9272166398487</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178956.0138262251</v>
+        <v>174737.7801859403</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22099924.35763671</v>
+        <v>22099924.3576367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7423353.428718867</v>
+        <v>7423353.428718872</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.120198496572</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>349.2134225813418</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>3.139541480022517</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045954</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>62.10271551817324</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>311.4396653368945</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>168.389434911778</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>260.4356504767623</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.40801272130633</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>185.7776845705948</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>79.58540461744407</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2026581781991</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>318.4274664709923</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038662</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299.2268834878737</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>146.3478931281813</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>50.38971918733571</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>270.447898547608</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,16 +1855,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>67.81327511846733</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>412.2245563226427</v>
       </c>
       <c r="C20" t="n">
-        <v>108.3674421098566</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2247,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>64.90507698037636</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>45.91568880648689</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>267.9601086666781</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>127.1100078938257</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>314.8435364600425</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2794,25 +2794,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>420.4433014585691</v>
       </c>
       <c r="E29" t="n">
-        <v>368.0234318832712</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3727301458102</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>141.5030095872359</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3268,13 +3268,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>127.1100078938257</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>183.1912537713364</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.87562473588811</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>289.444180460974</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>203.3621339373056</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.75529100421647</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225723</v>
+        <v>24.62703520776667</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>158.9136875776797</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>268.3727301458104</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2480.040423909638</v>
+        <v>1133.414674792233</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.897951093061</v>
+        <v>695.2722019756566</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X2" t="n">
-        <v>2670.060826431428</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="Y2" t="n">
-        <v>2670.060826431428</v>
+        <v>1559.714245277141</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K3" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L3" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885332</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862855</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4494,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4527,13 +4527,13 @@
         <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1416.332668825485</v>
+        <v>2051.756204945986</v>
       </c>
       <c r="C5" t="n">
-        <v>978.1901960089081</v>
+        <v>1613.613732129409</v>
       </c>
       <c r="D5" t="n">
-        <v>915.4601803339856</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4585,34 +4585,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2051.756204945986</v>
       </c>
       <c r="W5" t="n">
-        <v>2670.060826431428</v>
+        <v>2051.756204945986</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.918363010739</v>
+        <v>2051.756204945986</v>
       </c>
       <c r="Y5" t="n">
-        <v>1842.632239310392</v>
+        <v>2051.756204945986</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1041.328054693136</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
         <v>871.2377163984103</v>
@@ -4719,25 +4719,25 @@
         <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2264.94001130788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="V7" t="n">
-        <v>1977.98450317831</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1705.958098764602</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1460.566344098014</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>1233.146673412123</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2670.060826431428</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.918363010739</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="Y8" t="n">
-        <v>2250.918363010739</v>
+        <v>1640.500119716325</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4944,22 +4944,22 @@
         <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>568.9155211348376</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1575173855749</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>222.4504633473311</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>222.4504633473311</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1744.502472739147</v>
+        <v>1618.398249477141</v>
       </c>
       <c r="C11" t="n">
-        <v>1306.359999922571</v>
+        <v>1180.255776660564</v>
       </c>
       <c r="D11" t="n">
-        <v>870.4502150970152</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E11" t="n">
-        <v>436.6754702553104</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F11" t="n">
-        <v>436.6754702553104</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G11" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L11" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M11" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5071,22 +5071,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V11" t="n">
-        <v>1744.502472739147</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W11" t="n">
-        <v>1744.502472739147</v>
+        <v>2044.697819962048</v>
       </c>
       <c r="X11" t="n">
-        <v>1744.502472739147</v>
+        <v>2044.697819962048</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.502472739147</v>
+        <v>2044.697819962048</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5132,10 +5132,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5223,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U13" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>915.4601803339856</v>
+        <v>490.7743151332029</v>
       </c>
       <c r="C14" t="n">
-        <v>915.4601803339856</v>
+        <v>490.7743151332029</v>
       </c>
       <c r="D14" t="n">
-        <v>915.4601803339856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E14" t="n">
-        <v>481.6854354922808</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F14" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U14" t="n">
-        <v>2449.993599304467</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V14" t="n">
-        <v>2449.993599304467</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W14" t="n">
-        <v>2045.1381447155</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X14" t="n">
-        <v>1625.995681294811</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y14" t="n">
-        <v>1217.709557594464</v>
+        <v>917.0738856181107</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>871.2377163984103</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C16" t="n">
-        <v>871.2377163984103</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D16" t="n">
-        <v>705.359723599933</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E16" t="n">
-        <v>535.6017198506702</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F16" t="n">
-        <v>358.8946658124264</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G16" t="n">
-        <v>193.303390838254</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K16" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
@@ -5460,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>2619.162120181594</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T16" t="n">
-        <v>2373.282673760049</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U16" t="n">
-        <v>2094.849673013155</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V16" t="n">
-        <v>1807.894164883585</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W16" t="n">
-        <v>1535.867760469877</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X16" t="n">
-        <v>1290.476005803289</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y16" t="n">
-        <v>1063.056335117397</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1196.265441698523</v>
+        <v>1419.868222854963</v>
       </c>
       <c r="C17" t="n">
-        <v>923.085746195889</v>
+        <v>1419.868222854963</v>
       </c>
       <c r="D17" t="n">
-        <v>487.1759613703334</v>
+        <v>983.9584380294073</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40121652862857</v>
+        <v>550.1836931877024</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862857</v>
+        <v>122.3162635969101</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
@@ -5524,19 +5524,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5545,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2449.993599304467</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U17" t="n">
-        <v>2449.993599304467</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V17" t="n">
-        <v>2449.993599304467</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W17" t="n">
-        <v>2449.993599304467</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X17" t="n">
-        <v>2030.851135883778</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.565012183431</v>
+        <v>1419.868222854963</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>853.3912651993772</v>
+        <v>919.8279083088576</v>
       </c>
       <c r="C20" t="n">
-        <v>743.9292024621484</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="D20" t="n">
-        <v>743.9292024621484</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="E20" t="n">
-        <v>743.9292024621484</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
@@ -5782,22 +5782,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V20" t="n">
-        <v>2107.119422805321</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W20" t="n">
-        <v>2107.119422805321</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X20" t="n">
-        <v>1687.976959384632</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y20" t="n">
-        <v>1279.690835684285</v>
+        <v>1336.2163490388</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>358.8946658124264</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5937,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L23" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M23" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N23" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6019,22 +6019,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2623.681342788512</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U23" t="n">
-        <v>2623.681342788512</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V23" t="n">
-        <v>2623.681342788512</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W23" t="n">
-        <v>2623.681342788512</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X23" t="n">
-        <v>2623.681342788512</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.395219088166</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6141,10 +6141,10 @@
         <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1789.095648603258</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C26" t="n">
-        <v>1350.953175786681</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194209</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862857</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>518.386598053036</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1179.226652594814</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M26" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N26" t="n">
-        <v>2500.906761678372</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O26" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V26" t="n">
-        <v>1789.095648603258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W26" t="n">
-        <v>1789.095648603258</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X26" t="n">
-        <v>1789.095648603258</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y26" t="n">
-        <v>1789.095648603258</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6308,19 +6308,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T28" t="n">
-        <v>2634.504334502149</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U28" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>714.2722113715448</v>
+        <v>1751.82325843001</v>
       </c>
       <c r="C29" t="n">
-        <v>714.2722113715448</v>
+        <v>1313.680785613434</v>
       </c>
       <c r="D29" t="n">
-        <v>714.2722113715448</v>
+        <v>888.9905821199295</v>
       </c>
       <c r="E29" t="n">
-        <v>342.5313710854123</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F29" t="n">
-        <v>342.5313710854123</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G29" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6475,16 +6475,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6496,19 +6496,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U29" t="n">
-        <v>2327.186649932282</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V29" t="n">
-        <v>1964.569699866109</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W29" t="n">
-        <v>1559.714245277142</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X29" t="n">
-        <v>1140.571781856453</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="Y29" t="n">
-        <v>1140.571781856453</v>
+        <v>2178.122828914918</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C31" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E31" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862855</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6648,25 +6648,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T31" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U31" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V31" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W31" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X31" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y31" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1015.012768265997</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="C32" t="n">
-        <v>1015.012768265997</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D32" t="n">
-        <v>1015.012768265997</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E32" t="n">
-        <v>1015.012768265997</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F32" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G32" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6718,10 +6718,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2449.993599304467</v>
+        <v>2527.128493515028</v>
       </c>
       <c r="U32" t="n">
-        <v>2190.771296621484</v>
+        <v>2527.128493515028</v>
       </c>
       <c r="V32" t="n">
-        <v>1828.15434655531</v>
+        <v>2164.511543448854</v>
       </c>
       <c r="W32" t="n">
-        <v>1423.298891966344</v>
+        <v>1759.656088859888</v>
       </c>
       <c r="X32" t="n">
-        <v>1423.298891966344</v>
+        <v>1759.656088859888</v>
       </c>
       <c r="Y32" t="n">
-        <v>1015.012768265997</v>
+        <v>1351.369965159541</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1011.477214236518</v>
+        <v>1755.000484527298</v>
       </c>
       <c r="C35" t="n">
-        <v>883.0832668690169</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="D35" t="n">
-        <v>883.0832668690169</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E35" t="n">
         <v>883.0832668690169</v>
@@ -6928,61 +6928,61 @@
         <v>455.2158372782247</v>
       </c>
       <c r="G35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L35" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M35" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W35" t="n">
-        <v>2265.205371842461</v>
+        <v>2181.300055012206</v>
       </c>
       <c r="X35" t="n">
-        <v>1846.062908421772</v>
+        <v>2181.300055012206</v>
       </c>
       <c r="Y35" t="n">
-        <v>1437.776784721425</v>
+        <v>2181.300055012206</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C36" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D36" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E36" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F36" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G36" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S36" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T36" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U36" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V36" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W36" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X36" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y36" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>744.3459918350084</v>
+        <v>1073.458492326338</v>
       </c>
       <c r="C38" t="n">
-        <v>744.3459918350084</v>
+        <v>635.3160195097612</v>
       </c>
       <c r="D38" t="n">
-        <v>744.3459918350084</v>
+        <v>635.3160195097612</v>
       </c>
       <c r="E38" t="n">
-        <v>744.3459918350084</v>
+        <v>635.3160195097612</v>
       </c>
       <c r="F38" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G38" t="n">
         <v>342.9481604582723</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L38" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M38" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N38" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U38" t="n">
-        <v>2410.838523748445</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V38" t="n">
-        <v>2048.221573682272</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W38" t="n">
-        <v>1643.366119093305</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X38" t="n">
-        <v>1224.223655672616</v>
+        <v>1908.044186511592</v>
       </c>
       <c r="Y38" t="n">
-        <v>815.9375319722691</v>
+        <v>1499.758062811246</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7323,13 +7323,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7338,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7356,7 +7356,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S40" t="n">
         <v>2651.821657388744</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.512437976118</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="C41" t="n">
-        <v>1351.369965159541</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="D41" t="n">
-        <v>915.4601803339856</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="E41" t="n">
-        <v>481.6854354922808</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F41" t="n">
-        <v>53.81800590148856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G41" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H41" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7441,22 +7441,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>1985.354999715114</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>1580.499545126147</v>
       </c>
       <c r="X41" t="n">
-        <v>2250.918363010739</v>
+        <v>1580.499545126147</v>
       </c>
       <c r="Y41" t="n">
-        <v>2215.812008461025</v>
+        <v>1172.213421425801</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482442</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314691</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329918</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837291</v>
+        <v>420.5753386802029</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454853</v>
+        <v>243.8682846419591</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131298</v>
+        <v>78.27700966778681</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862891</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862891</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7596,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>743.9292024621484</v>
+        <v>1321.225739685594</v>
       </c>
       <c r="C44" t="n">
-        <v>743.9292024621484</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="D44" t="n">
-        <v>743.9292024621484</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E44" t="n">
-        <v>743.9292024621484</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F44" t="n">
-        <v>743.9292024621484</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M44" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.993599304467</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.771296621484</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V44" t="n">
-        <v>1828.15434655531</v>
+        <v>2166.667773591191</v>
       </c>
       <c r="W44" t="n">
-        <v>1423.298891966344</v>
+        <v>2166.667773591191</v>
       </c>
       <c r="X44" t="n">
-        <v>1152.215326162495</v>
+        <v>1747.525310170502</v>
       </c>
       <c r="Y44" t="n">
-        <v>743.9292024621484</v>
+        <v>1747.525310170502</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7833,25 +7833,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X46" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
   </sheetData>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8455,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8622,7 +8622,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9172,16 +9172,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N17" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>30.03100411261573</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10588,7 +10588,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11299,10 +11299,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.9163762834866</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82.33726439595807</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.4479714591267</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>47.55111522861722</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.446659489829329</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,10 +22998,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>15.21302026266341</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>362.6285620587524</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>215.0292154724822</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>58.91774794908515</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>304.1811948847696</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>82.37943357208468</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.809691292185</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>285.2027938491186</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>90.92021546249565</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>107.2592358276476</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>163.313149540803</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>329.5705779445014</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.812018457415945</v>
       </c>
       <c r="C20" t="n">
-        <v>325.3936059785544</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23980,16 +23980,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>103.1553467313937</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>171.9508660492049</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9909301198043</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>302.3269894994621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>44.14724410546927</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>11.10738551873078</v>
       </c>
       <c r="E29" t="n">
-        <v>61.41356551001655</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24922,22 +24922,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>155.2160251490741</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>76.36354526845588</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>306.6510401945852</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>217.6156462717406</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1609500441706</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25402,10 +25402,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>134.1445748339103</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>155.6286466282061</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.4479714591266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>113.8761173587626</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,16 +25876,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>200.077092987832</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>146.578308640672</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482437.4994388259</v>
+        <v>482437.4994388258</v>
       </c>
     </row>
   </sheetData>
@@ -26328,13 +26328,13 @@
         <v>135276.4913831621</v>
       </c>
       <c r="G2" t="n">
+        <v>135276.491383162</v>
+      </c>
+      <c r="H2" t="n">
         <v>135276.4913831621</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>135276.491383162</v>
-      </c>
-      <c r="I2" t="n">
-        <v>135276.4913831621</v>
       </c>
       <c r="J2" t="n">
         <v>135276.4913831621</v>
@@ -26352,10 +26352,10 @@
         <v>135276.4913831621</v>
       </c>
       <c r="O2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="P2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
     </row>
     <row r="3">
@@ -26429,16 +26429,16 @@
         <v>26396.92784106698</v>
       </c>
       <c r="F4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="G4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="H4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="I4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="J4" t="n">
         <v>26396.92784106698</v>
@@ -26453,7 +26453,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="N4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="O4" t="n">
         <v>26396.92784106698</v>
@@ -26472,46 +26472,46 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189032.6596037074</v>
+        <v>-189527.5498322887</v>
       </c>
       <c r="C6" t="n">
-        <v>34667.0389803374</v>
+        <v>34172.14875175613</v>
       </c>
       <c r="D6" t="n">
-        <v>34667.0389803374</v>
+        <v>34172.14875175613</v>
       </c>
       <c r="E6" t="n">
-        <v>68294.6389803374</v>
+        <v>67799.74875175614</v>
       </c>
       <c r="F6" t="n">
-        <v>68294.63898033736</v>
+        <v>67799.74875175615</v>
       </c>
       <c r="G6" t="n">
-        <v>68294.63898033739</v>
+        <v>67799.74875175609</v>
       </c>
       <c r="H6" t="n">
-        <v>68294.63898033733</v>
+        <v>67799.74875175612</v>
       </c>
       <c r="I6" t="n">
-        <v>68294.63898033739</v>
+        <v>67799.74875175611</v>
       </c>
       <c r="J6" t="n">
-        <v>-106356.7097373687</v>
+        <v>-106851.59996595</v>
       </c>
       <c r="K6" t="n">
-        <v>68294.63898033737</v>
+        <v>67799.74875175617</v>
       </c>
       <c r="L6" t="n">
-        <v>68294.63898033737</v>
+        <v>67799.74875175614</v>
       </c>
       <c r="M6" t="n">
-        <v>68294.63898033737</v>
+        <v>67799.74875175617</v>
       </c>
       <c r="N6" t="n">
-        <v>68294.63898033736</v>
+        <v>67799.74875175614</v>
       </c>
       <c r="O6" t="n">
-        <v>68294.6389803374</v>
+        <v>67799.74875175611</v>
       </c>
       <c r="P6" t="n">
-        <v>68294.63898033737</v>
+        <v>67799.74875175609</v>
       </c>
     </row>
   </sheetData>
@@ -26792,46 +26792,46 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078568</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35175,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35342,10 +35342,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35421,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35649,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35892,16 +35892,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N17" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36597,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>30.03100411261573</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37083,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37308,7 +37308,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37706,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37782,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38019,10 +38019,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
